--- a/BackTest/2020-01-20 BackTest SOC.xlsx
+++ b/BackTest/2020-01-20 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -5929,17 +5929,11 @@
         <v>-927290.1050754949</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>10.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5972,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6009,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6046,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6083,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6120,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6157,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6194,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6231,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6268,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6305,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6342,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6379,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6416,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6453,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6527,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6564,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6601,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6638,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6671,17 +6589,11 @@
         <v>-575728.4054523591</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>10.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6710,17 +6622,11 @@
         <v>-611214.2778523591</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>10.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6749,17 +6655,11 @@
         <v>-611214.2778523591</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>10.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6792,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6825,17 +6721,11 @@
         <v>-586144.5093523592</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>10.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6864,17 +6754,11 @@
         <v>-578808.1627523592</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>10.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6903,17 +6787,11 @@
         <v>-616023.9566523592</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>10.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6942,17 +6820,11 @@
         <v>-573480.7056523592</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>10.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6981,17 +6853,11 @@
         <v>-573480.7056523592</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>10.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7020,17 +6886,11 @@
         <v>-573480.7056523592</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>10.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7063,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7100,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7137,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7174,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7211,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7248,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7285,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7322,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7359,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7396,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7433,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7470,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7507,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7544,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7581,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7618,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7655,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7692,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7725,17 +7513,11 @@
         <v>-1116576.863052359</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>10.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7764,17 +7546,11 @@
         <v>-1135436.353352359</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>10.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7807,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7844,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7877,17 +7645,11 @@
         <v>-978512.9536523593</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>10.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7920,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7953,17 +7711,11 @@
         <v>-978512.9536523593</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>10.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7996,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8033,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8070,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8144,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8181,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8214,17 +7942,11 @@
         <v>-1243274.679552359</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>10.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8253,17 +7975,11 @@
         <v>-1243274.679552359</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>10.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8292,17 +8008,11 @@
         <v>-1243274.679552359</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>10.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8331,17 +8041,11 @@
         <v>-1243274.679552359</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>10.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8370,17 +8074,11 @@
         <v>-1221212.365952359</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>10.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8409,17 +8107,11 @@
         <v>-1236358.873052359</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>10.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8448,17 +8140,11 @@
         <v>-1224310.435952359</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>10.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8487,17 +8173,11 @@
         <v>-1124790.320952359</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>10.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8526,17 +8206,11 @@
         <v>-1201383.853252359</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="n">
-        <v>10.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8565,17 +8239,11 @@
         <v>-1187058.43365236</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>10.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8604,17 +8272,11 @@
         <v>-1187058.43365236</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>10.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8643,17 +8305,11 @@
         <v>-1187058.43365236</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>10.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8682,17 +8338,11 @@
         <v>-1187058.43365236</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>10.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8721,17 +8371,11 @@
         <v>-1187058.43365236</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>10.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8760,17 +8404,11 @@
         <v>-1187058.43365236</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="n">
-        <v>10.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8799,17 +8437,11 @@
         <v>-1187058.43365236</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>10.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8838,17 +8470,11 @@
         <v>-1187058.43365236</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>10.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8877,17 +8503,11 @@
         <v>-1187058.43365236</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>10.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8916,17 +8536,11 @@
         <v>-1187058.43365236</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>10.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8955,17 +8569,11 @@
         <v>-1187058.43365236</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>10.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8994,17 +8602,11 @@
         <v>-1135361.53575236</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>10.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9033,17 +8635,11 @@
         <v>-1050208.05435236</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="n">
-        <v>10.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9072,17 +8668,11 @@
         <v>-1056502.53005236</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>10.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9111,17 +8701,11 @@
         <v>-1063059.18765236</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>10.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9150,17 +8734,11 @@
         <v>-1055511.71845236</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>10.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9193,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9230,11 +8804,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9267,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9304,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9341,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9378,11 +8936,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9415,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9448,17 +8998,11 @@
         <v>-1160260.57445236</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>10.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9487,17 +9031,11 @@
         <v>-1166006.29075236</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="n">
-        <v>10.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9526,17 +9064,11 @@
         <v>-1159607.44705236</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>10.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9565,17 +9097,11 @@
         <v>-980209.5598523596</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>10.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9608,11 +9134,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9645,11 +9167,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9682,11 +9200,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9719,11 +9233,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9756,11 +9266,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9793,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9830,11 +9332,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9867,11 +9365,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9904,11 +9398,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9941,11 +9431,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9978,11 +9464,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10015,11 +9497,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10052,11 +9530,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10089,11 +9563,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10126,11 +9596,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10163,11 +9629,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10200,11 +9662,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10237,11 +9695,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10274,11 +9728,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10311,11 +9761,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10348,11 +9794,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10385,11 +9827,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10422,11 +9860,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10459,11 +9893,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10496,11 +9926,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10533,11 +9959,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10570,11 +9992,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10607,11 +10025,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10644,11 +10058,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10681,11 +10091,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10718,11 +10124,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10755,11 +10157,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10792,11 +10190,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10829,11 +10223,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10866,11 +10256,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10903,11 +10289,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10940,11 +10322,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10977,11 +10355,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11014,11 +10388,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11051,11 +10421,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11088,11 +10454,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11121,16 +10483,14 @@
         <v>755443.8067051056</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
       <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
@@ -11156,7 +10516,7 @@
         <v>933429.3154213465</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11189,7 +10549,7 @@
         <v>1472256.673821346</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11222,7 +10582,7 @@
         <v>3449428.337721346</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11255,7 +10615,7 @@
         <v>4858362.253532376</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11651,7 +11011,7 @@
         <v>5464600.556098751</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11717,7 +11077,7 @@
         <v>4767989.598166188</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11750,7 +11110,7 @@
         <v>4942206.509066188</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11783,7 +11143,7 @@
         <v>4585083.090466188</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11816,7 +11176,7 @@
         <v>4660574.068566188</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11849,7 +11209,7 @@
         <v>4760369.442066188</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11882,7 +11242,7 @@
         <v>4500660.256866188</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11915,7 +11275,7 @@
         <v>5176573.356966188</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11948,7 +11308,7 @@
         <v>5145185.014166188</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11981,7 +11341,7 @@
         <v>5223423.621966189</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12014,7 +11374,7 @@
         <v>4986391.099066189</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12047,7 +11407,7 @@
         <v>5021834.107166189</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12080,7 +11440,7 @@
         <v>5007004.932466188</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12113,7 +11473,7 @@
         <v>4971015.432866189</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12146,7 +11506,7 @@
         <v>4702150.027566189</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12179,7 +11539,7 @@
         <v>4616623.631066189</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12212,7 +11572,7 @@
         <v>4796229.09136619</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12245,7 +11605,7 @@
         <v>4453770.45096619</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12278,7 +11638,7 @@
         <v>4505654.081566189</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12311,7 +11671,7 @@
         <v>4458620.267666189</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12344,7 +11704,7 @@
         <v>4408161.381966189</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12377,7 +11737,7 @@
         <v>4373960.947266188</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12410,7 +11770,7 @@
         <v>4436103.678366189</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12443,7 +11803,7 @@
         <v>4393934.398466188</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12476,7 +11836,7 @@
         <v>4153155.694466189</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12509,7 +11869,7 @@
         <v>4184216.058366189</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12542,7 +11902,7 @@
         <v>4168136.255666189</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12575,7 +11935,7 @@
         <v>4126673.406466189</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12608,7 +11968,7 @@
         <v>4126673.406466189</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12641,7 +12001,7 @@
         <v>4126673.406466189</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12674,7 +12034,7 @@
         <v>4137038.917166189</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12740,7 +12100,7 @@
         <v>4289238.393766189</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12773,7 +12133,7 @@
         <v>3986177.985366189</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12806,7 +12166,7 @@
         <v>4076678.849966189</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12839,7 +12199,7 @@
         <v>4030743.144836831</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12872,7 +12232,7 @@
         <v>3989495.598236831</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12905,7 +12265,7 @@
         <v>3989495.598236831</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12938,7 +12298,7 @@
         <v>3960136.879036831</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12971,7 +12331,7 @@
         <v>3968633.492736831</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13004,7 +12364,7 @@
         <v>3931018.148236831</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13037,7 +12397,7 @@
         <v>3959921.249836831</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13070,7 +12430,7 @@
         <v>3890675.189936831</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13103,7 +12463,7 @@
         <v>3926471.399936831</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13136,7 +12496,7 @@
         <v>3898216.54803683</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13169,7 +12529,7 @@
         <v>3898216.54803683</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13202,7 +12562,7 @@
         <v>3898216.54803683</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13235,7 +12595,7 @@
         <v>3803894.143636831</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13268,7 +12628,7 @@
         <v>3828283.650236831</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13334,7 +12694,7 @@
         <v>3874741.68623683</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13400,7 +12760,7 @@
         <v>3839449.436136831</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13466,7 +12826,7 @@
         <v>3819073.67943683</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13499,7 +12859,7 @@
         <v>3819073.67943683</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13532,7 +12892,7 @@
         <v>3880406.49283683</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13565,7 +12925,7 @@
         <v>3458692.05783683</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13598,7 +12958,7 @@
         <v>3539227.34463683</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13631,7 +12991,7 @@
         <v>3473138.08643683</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13664,7 +13024,7 @@
         <v>3403070.04933683</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13697,7 +13057,7 @@
         <v>2672685.94633683</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13730,7 +13090,7 @@
         <v>2672685.94633683</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13763,7 +13123,7 @@
         <v>2229268.80353683</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13796,7 +13156,7 @@
         <v>2659006.73853683</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13829,7 +13189,7 @@
         <v>2591263.20843683</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13862,7 +13222,7 @@
         <v>2522925.23013683</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13895,7 +13255,7 @@
         <v>2222052.02293683</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13928,7 +13288,7 @@
         <v>1563470.73783683</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13961,7 +13321,7 @@
         <v>1574222.91833683</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13994,7 +13354,7 @@
         <v>1574222.91833683</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14027,7 +13387,7 @@
         <v>1260656.196456811</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14060,7 +13420,7 @@
         <v>1267113.326856811</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14093,7 +13453,7 @@
         <v>941095.413256811</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14126,7 +13486,7 @@
         <v>947921.296656811</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14159,7 +13519,7 @@
         <v>758170.3989568111</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14192,7 +13552,7 @@
         <v>918774.2429568111</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15875,7 +15235,7 @@
         <v>1261955.106541498</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15908,7 +15268,7 @@
         <v>1369684.956741498</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15941,7 +15301,7 @@
         <v>1393041.427441498</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15974,7 +15334,7 @@
         <v>1272094.888141498</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16007,7 +15367,7 @@
         <v>1375082.193441498</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16040,7 +15400,7 @@
         <v>1343290.854941498</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16073,7 +15433,7 @@
         <v>1409662.373741498</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16106,7 +15466,7 @@
         <v>1369392.337941498</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16139,7 +15499,7 @@
         <v>1376775.059041498</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16172,7 +15532,7 @@
         <v>1391414.861941498</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16205,7 +15565,7 @@
         <v>1375213.858741498</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16238,7 +15598,7 @@
         <v>1329119.929841498</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16271,7 +15631,7 @@
         <v>1398682.705741498</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16304,7 +15664,7 @@
         <v>1398682.705741498</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16337,7 +15697,7 @@
         <v>1452837.367541498</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16370,7 +15730,7 @@
         <v>1436767.320041498</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16403,7 +15763,7 @@
         <v>1421013.631141498</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16436,7 +15796,7 @@
         <v>1398978.582341498</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16469,7 +15829,7 @@
         <v>1485106.056841498</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16502,7 +15862,7 @@
         <v>1485106.056841498</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16535,7 +15895,7 @@
         <v>1491869.498741498</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16568,7 +15928,7 @@
         <v>1485330.786241498</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16667,7 +16027,7 @@
         <v>1492369.823641498</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16700,7 +16060,7 @@
         <v>1402426.907941498</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16733,7 +16093,7 @@
         <v>1409362.198241498</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16766,7 +16126,7 @@
         <v>1409362.198241498</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16799,7 +16159,7 @@
         <v>1409362.198241498</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16832,7 +16192,7 @@
         <v>1390976.241741498</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16865,7 +16225,7 @@
         <v>1390976.241741498</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16931,7 +16291,7 @@
         <v>1596620.379441498</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16964,7 +16324,7 @@
         <v>1543723.472841498</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16997,7 +16357,7 @@
         <v>1543723.472841498</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17030,7 +16390,7 @@
         <v>1543723.472841498</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17327,7 +16687,7 @@
         <v>1608359.788919141</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17393,7 +16753,7 @@
         <v>1633564.350791498</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17459,7 +16819,7 @@
         <v>1653119.599891498</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17525,7 +16885,7 @@
         <v>1664296.307691498</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17558,7 +16918,7 @@
         <v>1682348.309541498</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17591,7 +16951,7 @@
         <v>1700626.954141498</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17624,7 +16984,7 @@
         <v>1679353.540641498</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17657,7 +17017,7 @@
         <v>1700722.941841498</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17723,7 +17083,7 @@
         <v>1701800.676441498</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17756,7 +17116,7 @@
         <v>1695809.469841498</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17789,7 +17149,7 @@
         <v>1700620.875541498</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17822,7 +17182,7 @@
         <v>1697555.803341498</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17855,7 +17215,7 @@
         <v>1700426.780741498</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17888,7 +17248,7 @@
         <v>1699137.329341498</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17921,7 +17281,7 @@
         <v>1699192.329341498</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17954,7 +17314,7 @@
         <v>1679966.935641499</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17987,7 +17347,7 @@
         <v>1679966.935641499</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18020,7 +17380,7 @@
         <v>1501788.587641499</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -21023,11 +20383,17 @@
         <v>-2760930.874958502</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>10.11</v>
+      </c>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21056,11 +20422,17 @@
         <v>-2679805.894258501</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>10.11</v>
+      </c>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21089,7 +20461,7 @@
         <v>-2614511.462258501</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I608" t="n">
         <v>10.25</v>
@@ -21097,7 +20469,7 @@
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L608" t="n">
@@ -21128,9 +20500,11 @@
         <v>-2443121.664458502</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>10.26</v>
+      </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
@@ -21165,9 +20539,11 @@
         <v>-2277530.915258502</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>10.27</v>
+      </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
@@ -21202,7 +20578,7 @@
         <v>-2385162.775058502</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I611" t="n">
         <v>10.28</v>
@@ -21241,7 +20617,7 @@
         <v>-2868081.409758502</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I612" t="n">
         <v>10.27</v>
@@ -21280,9 +20656,11 @@
         <v>-2704408.273458502</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>10.17</v>
+      </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -21317,7 +20695,7 @@
         <v>-2899455.106858502</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I614" t="n">
         <v>10.18</v>
@@ -21356,7 +20734,7 @@
         <v>-2076034.712158502</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I615" t="n">
         <v>10.14</v>
@@ -21395,7 +20773,7 @@
         <v>-1834046.026758502</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I616" t="n">
         <v>10.16</v>
@@ -21434,7 +20812,7 @@
         <v>-1720356.257458501</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I617" t="n">
         <v>10.17</v>
@@ -21473,7 +20851,7 @@
         <v>-1982847.876658502</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I618" t="n">
         <v>10.23</v>
@@ -21512,7 +20890,7 @@
         <v>-1837451.832058502</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I619" t="n">
         <v>10.13</v>
@@ -21551,7 +20929,7 @@
         <v>-1837451.832058502</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I620" t="n">
         <v>10.14</v>
@@ -21590,7 +20968,7 @@
         <v>-1756752.919358502</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I621" t="n">
         <v>10.14</v>
@@ -21629,7 +21007,7 @@
         <v>-1806589.942558502</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I622" t="n">
         <v>10.22</v>
@@ -21668,7 +21046,7 @@
         <v>-1871617.018658502</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I623" t="n">
         <v>10.21</v>
@@ -21707,7 +21085,7 @@
         <v>-1291243.057958501</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I624" t="n">
         <v>10.18</v>
@@ -21746,7 +21124,7 @@
         <v>-1173888.051658501</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I625" t="n">
         <v>10.26</v>
@@ -21785,7 +21163,7 @@
         <v>-1173888.051658501</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I626" t="n">
         <v>10.27</v>
@@ -21824,7 +21202,7 @@
         <v>-1099169.215958501</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I627" t="n">
         <v>10.27</v>
@@ -21863,7 +21241,7 @@
         <v>-1014189.389658501</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I628" t="n">
         <v>10.29</v>
@@ -21902,7 +21280,7 @@
         <v>-889581.6445585014</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I629" t="n">
         <v>10.3</v>
@@ -21941,7 +21319,7 @@
         <v>-863843.4330585015</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I630" t="n">
         <v>10.32</v>
@@ -21980,11 +21358,9 @@
         <v>-680462.0296585015</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
-      </c>
-      <c r="I631" t="n">
-        <v>10.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
@@ -22019,11 +21395,9 @@
         <v>-779050.5556585015</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
-      </c>
-      <c r="I632" t="n">
-        <v>10.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -22058,11 +21432,9 @@
         <v>-691147.9564585015</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
-      </c>
-      <c r="I633" t="n">
-        <v>10.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -22985,11 +22357,9 @@
         <v>-1645461.226058501</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
-      </c>
-      <c r="I658" t="n">
-        <v>10.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
@@ -23061,9 +22431,11 @@
         <v>-1657831.760358501</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>10.32</v>
+      </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
@@ -23098,9 +22470,11 @@
         <v>-1628181.099058501</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>10.27</v>
+      </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
@@ -23135,9 +22509,11 @@
         <v>-1579600.135758501</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>10.35</v>
+      </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
@@ -24837,9 +24213,11 @@
         <v>-1634658.052819273</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>10.48</v>
+      </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
@@ -24874,9 +24252,11 @@
         <v>-1588489.272219273</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>10.45</v>
+      </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
@@ -24911,9 +24291,11 @@
         <v>-1531407.424619273</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>10.47</v>
+      </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
@@ -24948,9 +24330,11 @@
         <v>-1560533.294119273</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>10.54</v>
+      </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
@@ -25962,6 +25346,6 @@
       <c r="M738" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest SOC.xlsx
+++ b/BackTest/2020-01-20 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -10516,7 +10516,7 @@
         <v>933429.3154213465</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>1472256.673821346</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>3449428.337721346</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>4858362.253532376</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>5464600.556098751</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>4767989.598166188</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>4942206.509066188</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>4585083.090466188</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>4660574.068566188</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>4760369.442066188</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>4500660.256866188</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>5176573.356966188</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>5145185.014166188</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>5223423.621966189</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>4986391.099066189</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>5021834.107166189</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>5007004.932466188</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>4971015.432866189</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>4702150.027566189</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>4393934.398466188</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>4153155.694466189</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>4184216.058366189</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>4168136.255666189</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>4126673.406466189</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>4126673.406466189</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>4126673.406466189</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>4143354.855366189</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>4289238.393766189</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>3986177.985366189</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>4076678.849966189</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>4030743.144836831</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>3989495.598236831</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>3989495.598236831</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>3960136.879036831</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>3968633.492736831</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>3931018.148236831</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>3959921.249836831</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>3890675.189936831</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>3926471.399936831</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>3898216.54803683</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>3898216.54803683</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>3898216.54803683</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>3803894.143636831</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>3828283.650236831</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>3874741.68623683</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>3839449.436136831</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>3819073.67943683</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>3819073.67943683</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>3880406.49283683</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>3458692.05783683</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>3539227.34463683</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>3473138.08643683</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>3403070.04933683</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>2672685.94633683</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>2672685.94633683</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>2229268.80353683</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>2659006.73853683</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>2591263.20843683</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>2522925.23013683</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>2222052.02293683</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>1563470.73783683</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>1574222.91833683</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>1574222.91833683</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>1260656.196456811</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>1267113.326856811</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>941095.413256811</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>947921.296656811</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>758170.3989568111</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>918774.2429568111</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -20383,173 +20383,149 @@
         <v>-2760930.874958502</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
-      </c>
-      <c r="I606" t="n">
-        <v>10.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
+      <c r="K606" t="inlineStr"/>
+      <c r="L606" t="n">
+        <v>1</v>
+      </c>
+      <c r="M606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="C607" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="D607" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="E607" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="F607" t="n">
+        <v>81124.9807</v>
+      </c>
+      <c r="G607" t="n">
+        <v>-2679805.894258501</v>
+      </c>
+      <c r="H607" t="n">
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
+      <c r="L607" t="n">
+        <v>1</v>
+      </c>
+      <c r="M607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="C608" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="D608" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="E608" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="F608" t="n">
+        <v>65294.432</v>
+      </c>
+      <c r="G608" t="n">
+        <v>-2614511.462258501</v>
+      </c>
+      <c r="H608" t="n">
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
+      <c r="L608" t="n">
+        <v>1</v>
+      </c>
+      <c r="M608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="C609" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="D609" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="E609" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="F609" t="n">
+        <v>171389.7978</v>
+      </c>
+      <c r="G609" t="n">
+        <v>-2443121.664458502</v>
+      </c>
+      <c r="H609" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
+      <c r="L609" t="n">
+        <v>1</v>
+      </c>
+      <c r="M609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="C610" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="D610" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="E610" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="F610" t="n">
+        <v>165590.7492</v>
+      </c>
+      <c r="G610" t="n">
+        <v>-2277530.915258502</v>
+      </c>
+      <c r="H610" t="n">
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L606" t="n">
-        <v>1</v>
-      </c>
-      <c r="M606" t="inlineStr"/>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
-        <v>605</v>
-      </c>
-      <c r="B607" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="C607" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="D607" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="E607" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="F607" t="n">
-        <v>81124.9807</v>
-      </c>
-      <c r="G607" t="n">
-        <v>-2679805.894258501</v>
-      </c>
-      <c r="H607" t="n">
-        <v>1</v>
-      </c>
-      <c r="I607" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L607" t="n">
-        <v>1</v>
-      </c>
-      <c r="M607" t="inlineStr"/>
-    </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
-        <v>606</v>
-      </c>
-      <c r="B608" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="C608" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="D608" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="E608" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="F608" t="n">
-        <v>65294.432</v>
-      </c>
-      <c r="G608" t="n">
-        <v>-2614511.462258501</v>
-      </c>
-      <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L608" t="n">
-        <v>1</v>
-      </c>
-      <c r="M608" t="inlineStr"/>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="B609" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="C609" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="D609" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="E609" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="F609" t="n">
-        <v>171389.7978</v>
-      </c>
-      <c r="G609" t="n">
-        <v>-2443121.664458502</v>
-      </c>
-      <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L609" t="n">
-        <v>1</v>
-      </c>
-      <c r="M609" t="inlineStr"/>
-    </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
-        <v>608</v>
-      </c>
-      <c r="B610" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="C610" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="D610" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="E610" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="F610" t="n">
-        <v>165590.7492</v>
-      </c>
-      <c r="G610" t="n">
-        <v>-2277530.915258502</v>
-      </c>
-      <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20578,11 +20554,9 @@
         <v>-2385162.775058502</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
-      </c>
-      <c r="I611" t="n">
-        <v>10.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
@@ -20617,11 +20591,9 @@
         <v>-2868081.409758502</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
-        <v>10.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
@@ -20656,11 +20628,9 @@
         <v>-2704408.273458502</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>10.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -21202,11 +21172,9 @@
         <v>-1099169.215958501</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
-      </c>
-      <c r="I627" t="n">
-        <v>10.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -21241,11 +21209,9 @@
         <v>-1014189.389658501</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>10.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -21280,11 +21246,9 @@
         <v>-889581.6445585014</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>10.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
@@ -21319,11 +21283,9 @@
         <v>-863843.4330585015</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>10.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
@@ -22357,9 +22319,11 @@
         <v>-1645461.226058501</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>10.34</v>
+      </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
@@ -22431,11 +22395,9 @@
         <v>-1657831.760358501</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>10.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
@@ -22470,11 +22432,9 @@
         <v>-1628181.099058501</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>10.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
@@ -22509,11 +22469,9 @@
         <v>-1579600.135758501</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>10.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
@@ -24213,11 +24171,9 @@
         <v>-1634658.052819273</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
-      </c>
-      <c r="I708" t="n">
-        <v>10.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
@@ -24252,11 +24208,9 @@
         <v>-1588489.272219273</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
-      </c>
-      <c r="I709" t="n">
-        <v>10.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
@@ -24291,11 +24245,9 @@
         <v>-1531407.424619273</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
-      </c>
-      <c r="I710" t="n">
-        <v>10.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
@@ -24330,11 +24282,9 @@
         <v>-1560533.294119273</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
-      </c>
-      <c r="I711" t="n">
-        <v>10.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
@@ -24480,9 +24430,11 @@
         <v>-1622106.722319273</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>10.48</v>
+      </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
@@ -24517,9 +24469,11 @@
         <v>-1588410.052219273</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>10.48</v>
+      </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
@@ -24554,9 +24508,11 @@
         <v>-1576947.003219272</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>10.49</v>
+      </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
@@ -24591,9 +24547,11 @@
         <v>-1522657.178519272</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>10.51</v>
+      </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
@@ -24628,9 +24586,11 @@
         <v>-1268899.777919272</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>10.56</v>
+      </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
@@ -25331,9 +25291,11 @@
         <v>-1833376.615219272</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>10.52</v>
+      </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -25346,6 +25308,6 @@
       <c r="M738" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest SOC.xlsx
+++ b/BackTest/2020-01-20 BackTest SOC.xlsx
@@ -10516,7 +10516,7 @@
         <v>933429.3154213465</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>1472256.673821346</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>3449428.337721346</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>4858362.253532376</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>3965024.448632376</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>4267589.085232377</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>4922610.890998752</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>4838578.596198752</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>5567101.170998751</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>5487523.888098751</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>5464600.556098751</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>4611488.831798751</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>4767989.598166188</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>4942206.509066188</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>4585083.090466188</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>4660574.068566188</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>5176573.356966188</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>5145185.014166188</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>5223423.621966189</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>4986391.099066189</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>5021834.107166189</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>4616623.631066189</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>4796229.09136619</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>4453770.45096619</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>4505654.081566189</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>4458620.267666189</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>4408161.381966189</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>4373960.947266188</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>4436103.678366189</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>4137038.917166189</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>4143354.855366189</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -20515,17 +20515,11 @@
         <v>-2277530.915258502</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>10.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20558,11 +20552,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20595,11 +20585,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20632,11 +20618,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20665,17 +20647,11 @@
         <v>-2899455.106858502</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>10.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20704,17 +20680,11 @@
         <v>-2076034.712158502</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>10.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20743,17 +20713,11 @@
         <v>-1834046.026758502</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
-      </c>
-      <c r="I616" t="n">
-        <v>10.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20782,17 +20746,11 @@
         <v>-1720356.257458501</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>10.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20821,17 +20779,11 @@
         <v>-1982847.876658502</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>10.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20860,17 +20812,11 @@
         <v>-1837451.832058502</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>10.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20899,17 +20845,11 @@
         <v>-1837451.832058502</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>10.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20938,17 +20878,11 @@
         <v>-1756752.919358502</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>10.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20985,7 +20919,7 @@
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L622" t="n">
@@ -21172,9 +21106,11 @@
         <v>-1099169.215958501</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>10.27</v>
+      </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -21209,9 +21145,11 @@
         <v>-1014189.389658501</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>10.29</v>
+      </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -21246,9 +21184,11 @@
         <v>-889581.6445585014</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>10.3</v>
+      </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
@@ -21283,9 +21223,11 @@
         <v>-863843.4330585015</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>10.32</v>
+      </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
@@ -22060,9 +22002,11 @@
         <v>-1034676.861458501</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>10.34</v>
+      </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
@@ -22097,9 +22041,11 @@
         <v>-1034676.861458501</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>10.43</v>
+      </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
@@ -22134,9 +22080,11 @@
         <v>-1099021.783058501</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>10.43</v>
+      </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
@@ -22171,9 +22119,11 @@
         <v>-1529386.720958501</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>10.34</v>
+      </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
@@ -22208,9 +22158,11 @@
         <v>-1479610.184358501</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>10.26</v>
+      </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
@@ -22245,9 +22197,11 @@
         <v>-1499823.345858501</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>10.32</v>
+      </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
@@ -22282,9 +22236,11 @@
         <v>-1464579.854358501</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>10.27</v>
+      </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -22358,9 +22314,11 @@
         <v>-1625642.266858501</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>10.28</v>
+      </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
@@ -22395,9 +22353,11 @@
         <v>-1657831.760358501</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>10.32</v>
+      </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
@@ -22432,9 +22392,11 @@
         <v>-1628181.099058501</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>10.27</v>
+      </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
@@ -22469,9 +22431,11 @@
         <v>-1579600.135758501</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>10.35</v>
+      </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
@@ -22506,9 +22470,11 @@
         <v>-1516236.198958501</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>10.37</v>
+      </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
@@ -22543,9 +22509,11 @@
         <v>-1362302.767158502</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>10.5</v>
+      </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
@@ -22580,9 +22548,11 @@
         <v>-1175943.742758502</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>10.56</v>
+      </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
@@ -24208,9 +24178,11 @@
         <v>-1588489.272219273</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>10.45</v>
+      </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
@@ -24245,9 +24217,11 @@
         <v>-1531407.424619273</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>10.47</v>
+      </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
@@ -24430,11 +24404,9 @@
         <v>-1622106.722319273</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
-      </c>
-      <c r="I715" t="n">
-        <v>10.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
@@ -24469,11 +24441,9 @@
         <v>-1588410.052219273</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
-      </c>
-      <c r="I716" t="n">
-        <v>10.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
@@ -24508,11 +24478,9 @@
         <v>-1576947.003219272</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
-      </c>
-      <c r="I717" t="n">
-        <v>10.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
@@ -24547,11 +24515,9 @@
         <v>-1522657.178519272</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
-      </c>
-      <c r="I718" t="n">
-        <v>10.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
@@ -24586,11 +24552,9 @@
         <v>-1268899.777919272</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
-      </c>
-      <c r="I719" t="n">
-        <v>10.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
@@ -25291,11 +25255,9 @@
         <v>-1833376.615219272</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
-      </c>
-      <c r="I738" t="n">
-        <v>10.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
